--- a/biology/Biologie cellulaire et moléculaire/PCA_protein_complementation_assay/PCA_protein_complementation_assay.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PCA_protein_complementation_assay/PCA_protein_complementation_assay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PCA pour Protein-fragment Complementation Assay, est une technique de biologie moléculaire consistant à vérifier des interactions protéine-protéine en couplant chacune de nos protéines d'intérêt avec des fragments d'une protéine rapporteuse (luciférase entre autres), et en testant la restauration de l'activité de notre rapporteur.
 Si l'activité du rapporteur est restaurée (exemple: la luciférase), cela signifie que nos protéines interagissent et ont permis aux 2 fragments de la luciférase d'être suffisamment proche pour se complémenter.
